--- a/Users Loads9.xlsx
+++ b/Users Loads9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.404011063261798</v>
+        <v>3.645206191993366</v>
       </c>
       <c r="C2" t="n">
-        <v>3.770330414393037</v>
+        <v>8.858668200845866</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2989801179109768</v>
+        <v>0.4440932171299949</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.901635078919419</v>
+        <v>4.383809600599529</v>
       </c>
       <c r="C3" t="n">
-        <v>2.935633767422097</v>
+        <v>1.382641365688188</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1013469700673195</v>
+        <v>0.3289346777634581</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8.923957803385548</v>
+        <v>4.847638242716942</v>
       </c>
       <c r="C4" t="n">
-        <v>8.148580215013549</v>
+        <v>5.888908002725834</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4320972229560479</v>
+        <v>0.7054606029343404</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9.436014319834197</v>
+        <v>6.37223141104835</v>
       </c>
       <c r="C5" t="n">
-        <v>1.596888298053183</v>
+        <v>7.117657876314829</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2123985623449526</v>
+        <v>0.5620629427854495</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10.9525795277641</v>
+        <v>6.766458026411556</v>
       </c>
       <c r="C6" t="n">
-        <v>6.132524697639446</v>
+        <v>1.248686260683577</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2194766137556184</v>
+        <v>0.3712522531804548</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.6604081712531</v>
+        <v>12.49679203521436</v>
       </c>
       <c r="C7" t="n">
-        <v>4.390753367940719</v>
+        <v>2.608616447873291</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1929652296897449</v>
+        <v>0.3171336951303816</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13.41128838329134</v>
+        <v>15.18132571376524</v>
       </c>
       <c r="C8" t="n">
-        <v>9.598008133829195</v>
+        <v>7.803280427098616</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5748692503537456</v>
+        <v>0.3482744938681708</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>17.50938455853979</v>
+        <v>16.0965490438033</v>
       </c>
       <c r="C9" t="n">
-        <v>10.54329176194162</v>
+        <v>4.5344284782238</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4014066911460358</v>
+        <v>0.4656379717125014</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.12211497584883</v>
+        <v>17.39387357945646</v>
       </c>
       <c r="C10" t="n">
-        <v>2.208300605237012</v>
+        <v>4.073331090778641</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1703731917551947</v>
+        <v>0.1826336386989122</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19.52512805299223</v>
+        <v>20.51691641544009</v>
       </c>
       <c r="C11" t="n">
-        <v>3.621976730192277</v>
+        <v>2.638912571447953</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1305770357959153</v>
+        <v>0.5030849136238591</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>22.31163492257735</v>
+        <v>21.25921810457296</v>
       </c>
       <c r="C12" t="n">
-        <v>3.822815220195859</v>
+        <v>6.752993861897306</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2911311027884798</v>
+        <v>0.7131511897723457</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>22.82319228023119</v>
+        <v>26.32249086448913</v>
       </c>
       <c r="C13" t="n">
-        <v>5.514149076462926</v>
+        <v>6.841613101383336</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2571029151914921</v>
+        <v>0.5990683665144856</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>23.13403578437989</v>
+        <v>26.87396203536685</v>
       </c>
       <c r="C14" t="n">
-        <v>2.941929567080513</v>
+        <v>2.164824338768115</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2168918484728593</v>
+        <v>0.1695915333235668</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>24.93901315300697</v>
+        <v>32.93449667377096</v>
       </c>
       <c r="C15" t="n">
-        <v>8.563258535054199</v>
+        <v>2.517791272377724</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3315382777608323</v>
+        <v>0.1996924488484113</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>25.09581089864337</v>
+        <v>34.0272698158478</v>
       </c>
       <c r="C16" t="n">
-        <v>7.119763790535635</v>
+        <v>1.512464596366264</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4091808939603502</v>
+        <v>0.3257071581399337</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>25.57346929832185</v>
+        <v>35.05815693838623</v>
       </c>
       <c r="C17" t="n">
-        <v>5.351946636505179</v>
+        <v>5.468755042558919</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1185295355388523</v>
+        <v>0.3459356317888655</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>37.32062684922843</v>
+        <v>36.53744271072388</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9768919877619264</v>
+        <v>6.424061610919515</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2395655227781068</v>
+        <v>0.5660353622638917</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>42.98394635613612</v>
+        <v>37.10028371783362</v>
       </c>
       <c r="C19" t="n">
-        <v>5.93988783087976</v>
+        <v>5.892855347159736</v>
       </c>
       <c r="D19" t="n">
-        <v>0.07754453709494645</v>
+        <v>0.3370742401896643</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>46.65399764757388</v>
+        <v>37.94609828741224</v>
       </c>
       <c r="C20" t="n">
-        <v>6.284097940845287</v>
+        <v>3.128345679075647</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3555724800763405</v>
+        <v>0.3334217544812892</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>48.87380910782007</v>
+        <v>38.06010790228134</v>
       </c>
       <c r="C21" t="n">
-        <v>3.220558127374337</v>
+        <v>3.589218317300853</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1434449839946593</v>
+        <v>0.4593518133396342</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>52.08293211517219</v>
+        <v>38.40401611038392</v>
       </c>
       <c r="C22" t="n">
-        <v>7.361193397238267</v>
+        <v>8.847637558557913</v>
       </c>
       <c r="D22" t="n">
-        <v>0.328711785323048</v>
+        <v>0.4947951705066551</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>53.86800390825884</v>
+        <v>38.64532519864624</v>
       </c>
       <c r="C23" t="n">
-        <v>7.25188660262924</v>
+        <v>1.121299289936611</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3523303428742511</v>
+        <v>0.3266422111505823</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>54.85509059032093</v>
+        <v>38.75533702195085</v>
       </c>
       <c r="C24" t="n">
-        <v>3.20737486208129</v>
+        <v>6.958790388587532</v>
       </c>
       <c r="D24" t="n">
-        <v>0.05954222898203439</v>
+        <v>0.7038443241530404</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>58.8782295892829</v>
+        <v>39.42329033841006</v>
       </c>
       <c r="C25" t="n">
-        <v>3.58118642716091</v>
+        <v>5.081219019909729</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1811685112717878</v>
+        <v>0.7927182016156993</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>59.41053956575869</v>
+        <v>39.53923724316722</v>
       </c>
       <c r="C26" t="n">
-        <v>5.608060964255363</v>
+        <v>2.315057034167105</v>
       </c>
       <c r="D26" t="n">
-        <v>0.150844797387014</v>
+        <v>0.3973057821477242</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>59.9971068144371</v>
+        <v>39.79631869285787</v>
       </c>
       <c r="C27" t="n">
-        <v>2.21621441510637</v>
+        <v>9.349941952163016</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1849295538156657</v>
+        <v>0.6021271840216795</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>63.31358125819012</v>
+        <v>42.1521477778083</v>
       </c>
       <c r="C28" t="n">
-        <v>6.432334819829042</v>
+        <v>3.738655033172221</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1207589197717021</v>
+        <v>0.7922226568226339</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>63.57688130621136</v>
+        <v>45.24739522238139</v>
       </c>
       <c r="C29" t="n">
-        <v>3.132013607356134</v>
+        <v>4.940961599263082</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2052066653774916</v>
+        <v>0.5763937101637046</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>68.07190878927807</v>
+        <v>45.70923068005656</v>
       </c>
       <c r="C30" t="n">
-        <v>6.457247359098814</v>
+        <v>3.95843204787689</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4031503718454559</v>
+        <v>0.2535721347299477</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>72.00162184547411</v>
+        <v>46.28325937043653</v>
       </c>
       <c r="C31" t="n">
-        <v>7.815009705791873</v>
+        <v>5.769691346838951</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1953216004862356</v>
+        <v>0.450081875232447</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>72.84672585862275</v>
+        <v>48.31820076269299</v>
       </c>
       <c r="C32" t="n">
-        <v>7.478093749224475</v>
+        <v>8.945481260757317</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3330331635714008</v>
+        <v>0.5195370194071269</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>72.97407693469775</v>
+        <v>48.44556645546279</v>
       </c>
       <c r="C33" t="n">
-        <v>4.801848257318007</v>
+        <v>2.147899360231266</v>
       </c>
       <c r="D33" t="n">
-        <v>0.276306493840232</v>
+        <v>0.428300133800611</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>73.69849776716664</v>
+        <v>48.52343564834958</v>
       </c>
       <c r="C34" t="n">
-        <v>6.903871017199265</v>
+        <v>4.167361037283245</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1229807272687617</v>
+        <v>0.4829081202743919</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>75.57062132186518</v>
+        <v>48.82553677705712</v>
       </c>
       <c r="C35" t="n">
-        <v>9.020653492989485</v>
+        <v>3.576305893893265</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3210035811890244</v>
+        <v>0.5882196793411353</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>77.21893443833953</v>
+        <v>50.30248362632528</v>
       </c>
       <c r="C36" t="n">
-        <v>5.557927710638738</v>
+        <v>3.337955470427211</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4013901607272397</v>
+        <v>0.3216242038921238</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>79.50081846016175</v>
+        <v>50.86219542283866</v>
       </c>
       <c r="C37" t="n">
-        <v>4.784129792508611</v>
+        <v>3.956664248563747</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1040888455417285</v>
+        <v>0.6359673210002313</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>83.78742851335112</v>
+        <v>53.1641258154374</v>
       </c>
       <c r="C38" t="n">
-        <v>1.097324051247689</v>
+        <v>8.243109264058571</v>
       </c>
       <c r="D38" t="n">
-        <v>0.27729664137538</v>
+        <v>0.4213770678295656</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>84.53875613520408</v>
+        <v>53.88793558981771</v>
       </c>
       <c r="C39" t="n">
-        <v>7.628538040881814</v>
+        <v>4.63105475207677</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4663791901966686</v>
+        <v>0.4572020246092904</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +987,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>88.31170407746386</v>
+        <v>54.54826684180106</v>
       </c>
       <c r="C40" t="n">
-        <v>5.765016635721645</v>
+        <v>1.356010027097246</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3892444647481655</v>
+        <v>0.2639647832122718</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +1001,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>89.57669103425219</v>
+        <v>56.27652665119858</v>
       </c>
       <c r="C41" t="n">
-        <v>8.543305898780222</v>
+        <v>5.513855829400645</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4537451463459798</v>
+        <v>0.6434772185748003</v>
       </c>
     </row>
     <row r="42">
@@ -1015,13 +1015,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>95.86185790951042</v>
+        <v>59.3033849387793</v>
       </c>
       <c r="C42" t="n">
-        <v>7.283762077969626</v>
+        <v>1.844219565533461</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4396545050269716</v>
+        <v>0.2454813566728519</v>
       </c>
     </row>
     <row r="43">
@@ -1029,13 +1029,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>96.51251151955761</v>
+        <v>59.82904322343599</v>
       </c>
       <c r="C43" t="n">
-        <v>3.446657631713874</v>
+        <v>7.735191653280012</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2688040988243012</v>
+        <v>0.620321975776104</v>
       </c>
     </row>
     <row r="44">
@@ -1043,13 +1043,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>97.81110900496101</v>
+        <v>60.16084019636168</v>
       </c>
       <c r="C44" t="n">
-        <v>8.472108606387723</v>
+        <v>3.522244768610373</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3411285091694409</v>
+        <v>0.5272825998879047</v>
       </c>
     </row>
     <row r="45">
@@ -1057,13 +1057,349 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>97.97469683345827</v>
+        <v>61.71501396626988</v>
       </c>
       <c r="C45" t="n">
-        <v>3.429383110492445</v>
+        <v>5.947976784914683</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1662882992165967</v>
+        <v>0.4412564875950641</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>62.51355431783183</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.31825628611009</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.2867965375498073</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>64.76271612924744</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2.106664488603526</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.2440283094882096</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>65.71118310506517</v>
+      </c>
+      <c r="C48" t="n">
+        <v>4.939281618008239</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.6908720199816579</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>67.04118931534715</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4.313215490149245</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.5098213271858253</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>71.10966172417534</v>
+      </c>
+      <c r="C50" t="n">
+        <v>6.238241857397202</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.6137776012408273</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>72.49902512663589</v>
+      </c>
+      <c r="C51" t="n">
+        <v>4.264546063320592</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.4069104197161962</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>72.84200276627401</v>
+      </c>
+      <c r="C52" t="n">
+        <v>4.508505855531086</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.4007517000747983</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>73.6226621543851</v>
+      </c>
+      <c r="C53" t="n">
+        <v>6.081822720436659</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.6374089664423284</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>73.77023551779313</v>
+      </c>
+      <c r="C54" t="n">
+        <v>6.880731461154667</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.5074374292925939</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>74.3955741971406</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2.852469498987257</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.1924847904321531</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>74.48370499181156</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4.929428217862749</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.7483200854395077</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>77.87296389163599</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2.844719514106053</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.344646813939186</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>79.24974140182462</v>
+      </c>
+      <c r="C58" t="n">
+        <v>3.073408159722917</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.3883076727536454</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>79.55495946545591</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2.720411975841293</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.350417183644694</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>81.80872007210753</v>
+      </c>
+      <c r="C60" t="n">
+        <v>6.127069127655782</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.6429914093265965</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>83.89014339941453</v>
+      </c>
+      <c r="C61" t="n">
+        <v>5.451138367438002</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.7472319108590775</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>84.01678091554064</v>
+      </c>
+      <c r="C62" t="n">
+        <v>4.873240246308664</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.6061867032193685</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>85.99683130084721</v>
+      </c>
+      <c r="C63" t="n">
+        <v>3.985522459530099</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.6610669502217461</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>86.75477267356237</v>
+      </c>
+      <c r="C64" t="n">
+        <v>6.07795040056809</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.5619106822635931</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>89.55641069374384</v>
+      </c>
+      <c r="C65" t="n">
+        <v>3.025063499180566</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.3129615517519923</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>90.59107136184295</v>
+      </c>
+      <c r="C66" t="n">
+        <v>7.567334824958841</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.6160474318631286</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>96.20586597829954</v>
+      </c>
+      <c r="C67" t="n">
+        <v>5.84155445908424</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.5339030016565086</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>98.33242109002627</v>
+      </c>
+      <c r="C68" t="n">
+        <v>7.393803162446424</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.5199333714701926</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>98.34569998117593</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2.051873069320413</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.2803364471094464</v>
       </c>
     </row>
   </sheetData>
